--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -635,6 +635,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx; "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx, "A 34293-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx"; "A 34293-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -782,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -839,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -901,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1025,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1087,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1144,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1206,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1268,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1325,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1382,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1439,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1501,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1563,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1625,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1682,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1739,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1796,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1853,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1910,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1972,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2034,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2096,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2158,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2215,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2277,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2339,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2401,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2463,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2525,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2587,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2649,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2711,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2768,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2825,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2882,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2944,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3006,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3063,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3120,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3177,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3239,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3301,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3358,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3420,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3477,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3539,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3596,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3653,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3710,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3772,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3829,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3891,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3953,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4015,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4077,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4139,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4201,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4258,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4320,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4377,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4434,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4491,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4548,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4605,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4667,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4729,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4791,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4853,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4915,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4977,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5034,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5091,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5148,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5205,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5267,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5324,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5386,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5448,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5572,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5634,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5696,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5758,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5820,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx, "A 34293-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/kartor/A 34293-2023.png", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_LINDESBERG/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023.xlsx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/artfynd/A 34293-2023 artfynd.xlsx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023.png", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/kartor/A 34293-2023 karta.png", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 fsc-klagomål.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 fsc-klagomål mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsyn/A 34293-2023 tillsynsbegäran.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/ti,llsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 fsc-klagomål.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomål/A 34293-2023 FSC-klagomål.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 fsc-klagomål mail.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/klagomålsmail/A 34293-2023 FSC-klagomål mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/ti,llsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_1885/tillsynsmail/A 34293-2023 tillsynsbegäran mail.docx", "A 34293-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>

--- a/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
+++ b/Logging_OREBRO_LAN/Översikt ÖREBRO LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45138</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45109</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45110</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -838,7 +838,7 @@
         <v>45111</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -900,7 +900,7 @@
         <v>45111</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45111</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1024,7 +1024,7 @@
         <v>45111</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         <v>45111</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1143,7 +1143,7 @@
         <v>45111</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1205,7 +1205,7 @@
         <v>45111</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1267,7 +1267,7 @@
         <v>45111</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>45112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1438,7 +1438,7 @@
         <v>45112</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45112</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1562,7 +1562,7 @@
         <v>45112</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1624,7 +1624,7 @@
         <v>45113</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45113</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>45113</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1795,7 +1795,7 @@
         <v>45113</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1852,7 +1852,7 @@
         <v>45113</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1909,7 +1909,7 @@
         <v>45114</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45114</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2033,7 +2033,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2157,7 +2157,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2276,7 +2276,7 @@
         <v>45115</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>45115</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2400,7 +2400,7 @@
         <v>45115</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>45115</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2524,7 +2524,7 @@
         <v>45115</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         <v>45115</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         <v>45115</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         <v>45116</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>45116</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2824,7 +2824,7 @@
         <v>45117</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>45117</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2943,7 +2943,7 @@
         <v>45119</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3005,7 +3005,7 @@
         <v>45119</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3062,7 +3062,7 @@
         <v>45119</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3119,7 +3119,7 @@
         <v>45119</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3176,7 +3176,7 @@
         <v>45119</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3238,7 +3238,7 @@
         <v>45119</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>45119</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3357,7 +3357,7 @@
         <v>45119</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
         <v>45119</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>45119</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
         <v>45119</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3595,7 +3595,7 @@
         <v>45119</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3652,7 +3652,7 @@
         <v>45119</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         <v>45119</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>45120</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>45121</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3952,7 +3952,7 @@
         <v>45124</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         <v>45124</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4076,7 +4076,7 @@
         <v>45124</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4138,7 +4138,7 @@
         <v>45124</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4200,7 +4200,7 @@
         <v>45125</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4257,7 +4257,7 @@
         <v>45125</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4319,7 +4319,7 @@
         <v>45125</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4376,7 +4376,7 @@
         <v>45125</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4433,7 +4433,7 @@
         <v>45126</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4490,7 +4490,7 @@
         <v>45126</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4547,7 +4547,7 @@
         <v>45126</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4604,7 +4604,7 @@
         <v>45127</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4666,7 +4666,7 @@
         <v>45127</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>45127</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4790,7 +4790,7 @@
         <v>45127</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4852,7 +4852,7 @@
         <v>45127</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45128</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4976,7 +4976,7 @@
         <v>45128</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5033,7 +5033,7 @@
         <v>45128</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5090,7 +5090,7 @@
         <v>45131</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5147,7 +5147,7 @@
         <v>45131</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5204,7 +5204,7 @@
         <v>45131</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         <v>45132</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         <v>45132</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5385,7 +5385,7 @@
         <v>45134</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45135</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45135</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>45135</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5633,7 +5633,7 @@
         <v>45138</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45138</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>45138</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>45138</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
